--- a/Input/Mail_login.xlsx
+++ b/Input/Mail_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khalid/Desktop/BKG87/Monitoring_BankingApps/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45338AF2-BCD7-8044-8E70-225565560693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CF44B-486C-1E4B-BF00-F80FC0147574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
   </bookViews>
@@ -41,6 +41,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>dnfmrmbqmkmegcbl</t>
+  </si>
+  <si>
     <t>khalid.amine@sia-partners.com</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>khalid.amine008@gmail.com</t>
-  </si>
-  <si>
-    <t>(get from gmail: app password)</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,23 +434,23 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Mail_login.xlsx
+++ b/Input/Mail_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khalid/Desktop/BKG87/Monitoring_BankingApps/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CF44B-486C-1E4B-BF00-F80FC0147574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03A664-E11B-0D43-B0D6-29EDAD218A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{FDDEAB81-3B8D-4741-B87A-AC28992B76E4}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>dnfmrmbqmkmegcbl</t>
-  </si>
-  <si>
     <t>khalid.amine@sia-partners.com</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>khalid.amine008@gmail.com</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -434,23 +434,23 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
